--- a/Corte de Apelaciones de Arica/1-2014001#992#1-G-terminos_por_rol-2021-12.xlsx
+++ b/Corte de Apelaciones de Arica/1-2014001#992#1-G-terminos_por_rol-2021-12.xlsx
@@ -772,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
